--- a/data/outputs/数学期刊(下)_altmetric/66Japanese Journal of Mathematics.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/66Japanese Journal of Mathematics.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE7"/>
+  <dimension ref="A1:CF7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1031,6 +1036,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1274,6 +1282,9 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1517,6 +1528,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1758,6 +1772,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1999,6 +2016,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2240,6 +2260,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
